--- a/EasyAssetManager/wwwroot/UserSpace/SUMAN.BANERJEE/LOAN_RM_TARGET.xlsx
+++ b/EasyAssetManager/wwwroot/UserSpace/SUMAN.BANERJEE/LOAN_RM_TARGET.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>AREA_CODE</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Md. Salahuddin Ahmed</t>
+  </si>
+  <si>
+    <t>SEG_ID</t>
+  </si>
+  <si>
+    <t>SEG_NAME</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>SME</t>
   </si>
 </sst>
 </file>
@@ -190,7 +205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +223,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,10 +539,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,12 +554,14 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -566,17 +586,23 @@
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -597,15 +623,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -626,15 +658,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1">
         <v>50</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -655,15 +693,22 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EasyAssetManager/wwwroot/UserSpace/SUMAN.BANERJEE/LOAN_RM_TARGET.xlsx
+++ b/EasyAssetManager/wwwroot/UserSpace/SUMAN.BANERJEE/LOAN_RM_TARGET.xlsx
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,35 +562,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
@@ -607,28 +607,28 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
+      <c r="E2" s="6">
         <v>124</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1">
         <v>100</v>
       </c>
@@ -639,31 +639,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
         <v>50</v>
       </c>
@@ -674,31 +674,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1">
         <v>200</v>
       </c>
